--- a/Excel-XLSX/UN-GEO.xlsx
+++ b/Excel-XLSX/UN-GEO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="717">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>bENx20</t>
+    <t>CJs4Gn</t>
   </si>
   <si>
     <t>1993</t>
@@ -2112,12 +2112,12 @@
     <t>429</t>
   </si>
   <si>
+    <t>299172</t>
+  </si>
+  <si>
     <t>430</t>
   </si>
   <si>
-    <t>297905</t>
-  </si>
-  <si>
     <t>431</t>
   </si>
   <si>
@@ -2145,49 +2145,28 @@
     <t>440</t>
   </si>
   <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
     <t>441</t>
   </si>
   <si>
     <t>442</t>
   </si>
   <si>
+    <t>488</t>
+  </si>
+  <si>
     <t>443</t>
   </si>
   <si>
-    <t>490</t>
-  </si>
-  <si>
     <t>447</t>
   </si>
   <si>
     <t>449</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>UGA</t>
+    <t>29914</t>
   </si>
   <si>
     <t>450</t>
-  </si>
-  <si>
-    <t>451</t>
-  </si>
-  <si>
-    <t>26711</t>
-  </si>
-  <si>
-    <t>452</t>
-  </si>
-  <si>
-    <t>453</t>
   </si>
 </sst>
 </file>
@@ -2572,7 +2551,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V454"/>
+  <dimension ref="A1:V451"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -31181,10 +31160,10 @@
         <v>27</v>
       </c>
       <c r="N421" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O421" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P421" s="2" t="s">
         <v>28</v>
@@ -31252,7 +31231,7 @@
         <v>182</v>
       </c>
       <c r="O422" s="2" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="P422" s="2" t="s">
         <v>28</v>
@@ -31293,16 +31272,16 @@
         <v>690</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G423" s="1" t="s">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="H423" s="1" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="I423" s="1" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="J423" s="2" t="s">
         <v>25</v>
@@ -31361,16 +31340,16 @@
         <v>690</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>53</v>
+        <v>273</v>
       </c>
       <c r="H424" s="1" t="s">
-        <v>54</v>
+        <v>274</v>
       </c>
       <c r="I424" s="1" t="s">
-        <v>54</v>
+        <v>274</v>
       </c>
       <c r="J424" s="2" t="s">
         <v>25</v>
@@ -31385,10 +31364,10 @@
         <v>27</v>
       </c>
       <c r="N424" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="O424" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="P424" s="2" t="s">
         <v>28</v>
@@ -31429,16 +31408,16 @@
         <v>690</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="G425" s="1" t="s">
-        <v>273</v>
+        <v>570</v>
       </c>
       <c r="H425" s="1" t="s">
-        <v>274</v>
+        <v>571</v>
       </c>
       <c r="I425" s="1" t="s">
-        <v>274</v>
+        <v>571</v>
       </c>
       <c r="J425" s="2" t="s">
         <v>25</v>
@@ -31453,10 +31432,10 @@
         <v>27</v>
       </c>
       <c r="N425" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="O425" s="2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="P425" s="2" t="s">
         <v>28</v>
@@ -31497,16 +31476,16 @@
         <v>690</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="G426" s="1" t="s">
-        <v>570</v>
+        <v>487</v>
       </c>
       <c r="H426" s="1" t="s">
-        <v>571</v>
+        <v>488</v>
       </c>
       <c r="I426" s="1" t="s">
-        <v>571</v>
+        <v>488</v>
       </c>
       <c r="J426" s="2" t="s">
         <v>25</v>
@@ -31521,10 +31500,10 @@
         <v>27</v>
       </c>
       <c r="N426" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="O426" s="2" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="P426" s="2" t="s">
         <v>28</v>
@@ -31565,16 +31544,16 @@
         <v>690</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="G427" s="1" t="s">
-        <v>487</v>
+        <v>407</v>
       </c>
       <c r="H427" s="1" t="s">
-        <v>488</v>
+        <v>408</v>
       </c>
       <c r="I427" s="1" t="s">
-        <v>488</v>
+        <v>409</v>
       </c>
       <c r="J427" s="2" t="s">
         <v>25</v>
@@ -31589,7 +31568,7 @@
         <v>27</v>
       </c>
       <c r="N427" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="O427" s="2" t="s">
         <v>28</v>
@@ -31633,16 +31612,16 @@
         <v>690</v>
       </c>
       <c r="F428" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G428" s="1" t="s">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="H428" s="1" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="I428" s="1" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="J428" s="2" t="s">
         <v>25</v>
@@ -31657,10 +31636,10 @@
         <v>27</v>
       </c>
       <c r="N428" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="O428" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="P428" s="2" t="s">
         <v>28</v>
@@ -31701,16 +31680,16 @@
         <v>690</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="G429" s="1" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="H429" s="1" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="I429" s="1" t="s">
-        <v>447</v>
+        <v>492</v>
       </c>
       <c r="J429" s="2" t="s">
         <v>25</v>
@@ -31728,7 +31707,7 @@
         <v>28</v>
       </c>
       <c r="O429" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="P429" s="2" t="s">
         <v>28</v>
@@ -31769,16 +31748,16 @@
         <v>690</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="G430" s="1" t="s">
-        <v>490</v>
+        <v>26</v>
       </c>
       <c r="H430" s="1" t="s">
-        <v>491</v>
+        <v>27</v>
       </c>
       <c r="I430" s="1" t="s">
-        <v>492</v>
+        <v>27</v>
       </c>
       <c r="J430" s="2" t="s">
         <v>25</v>
@@ -31796,13 +31775,13 @@
         <v>28</v>
       </c>
       <c r="O430" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="P430" s="2" t="s">
         <v>28</v>
       </c>
       <c r="Q430" s="2" t="s">
-        <v>28</v>
+        <v>698</v>
       </c>
       <c r="R430" s="2" t="s">
         <v>28</v>
@@ -31831,22 +31810,22 @@
         <v>22</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>690</v>
       </c>
       <c r="F431" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="G431" s="1" t="s">
-        <v>26</v>
+        <v>332</v>
       </c>
       <c r="H431" s="1" t="s">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="I431" s="1" t="s">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="J431" s="2" t="s">
         <v>25</v>
@@ -31864,13 +31843,13 @@
         <v>28</v>
       </c>
       <c r="O431" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P431" s="2" t="s">
         <v>28</v>
       </c>
       <c r="Q431" s="2" t="s">
-        <v>699</v>
+        <v>28</v>
       </c>
       <c r="R431" s="2" t="s">
         <v>28</v>
@@ -31932,7 +31911,7 @@
         <v>28</v>
       </c>
       <c r="O432" s="2" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="P432" s="2" t="s">
         <v>28</v>
@@ -31997,10 +31976,10 @@
         <v>27</v>
       </c>
       <c r="N433" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="O433" s="2" t="s">
-        <v>455</v>
+        <v>259</v>
       </c>
       <c r="P433" s="2" t="s">
         <v>28</v>
@@ -32065,10 +32044,10 @@
         <v>27</v>
       </c>
       <c r="N434" s="2" t="s">
-        <v>475</v>
+        <v>153</v>
       </c>
       <c r="O434" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P434" s="2" t="s">
         <v>28</v>
@@ -32136,7 +32115,7 @@
         <v>28</v>
       </c>
       <c r="O435" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="P435" s="2" t="s">
         <v>28</v>
@@ -32269,10 +32248,10 @@
         <v>27</v>
       </c>
       <c r="N437" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O437" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="P437" s="2" t="s">
         <v>28</v>
@@ -32340,7 +32319,7 @@
         <v>28</v>
       </c>
       <c r="O438" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="P438" s="2" t="s">
         <v>28</v>
@@ -32381,16 +32360,16 @@
         <v>690</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>230</v>
+        <v>385</v>
       </c>
       <c r="H439" s="1" t="s">
-        <v>231</v>
+        <v>386</v>
       </c>
       <c r="I439" s="1" t="s">
-        <v>232</v>
+        <v>387</v>
       </c>
       <c r="J439" s="2" t="s">
         <v>25</v>
@@ -32473,10 +32452,10 @@
         <v>27</v>
       </c>
       <c r="N440" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="O440" s="2" t="s">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="P440" s="2" t="s">
         <v>28</v>
@@ -32517,16 +32496,16 @@
         <v>690</v>
       </c>
       <c r="F441" s="2" t="s">
-        <v>335</v>
+        <v>66</v>
       </c>
       <c r="G441" s="1" t="s">
-        <v>709</v>
+        <v>67</v>
       </c>
       <c r="H441" s="1" t="s">
-        <v>710</v>
+        <v>68</v>
       </c>
       <c r="I441" s="1" t="s">
-        <v>710</v>
+        <v>68</v>
       </c>
       <c r="J441" s="2" t="s">
         <v>25</v>
@@ -32541,10 +32520,10 @@
         <v>27</v>
       </c>
       <c r="N441" s="2" t="s">
-        <v>28</v>
+        <v>322</v>
       </c>
       <c r="O441" s="2" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="P441" s="2" t="s">
         <v>28</v>
@@ -32579,22 +32558,22 @@
         <v>22</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>690</v>
       </c>
       <c r="F442" s="2" t="s">
-        <v>66</v>
+        <v>351</v>
       </c>
       <c r="G442" s="1" t="s">
-        <v>67</v>
+        <v>352</v>
       </c>
       <c r="H442" s="1" t="s">
-        <v>68</v>
+        <v>353</v>
       </c>
       <c r="I442" s="1" t="s">
-        <v>68</v>
+        <v>353</v>
       </c>
       <c r="J442" s="2" t="s">
         <v>25</v>
@@ -32609,10 +32588,10 @@
         <v>27</v>
       </c>
       <c r="N442" s="2" t="s">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="O442" s="2" t="s">
-        <v>289</v>
+        <v>28</v>
       </c>
       <c r="P442" s="2" t="s">
         <v>28</v>
@@ -32647,22 +32626,22 @@
         <v>22</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>690</v>
       </c>
       <c r="F443" s="2" t="s">
-        <v>351</v>
+        <v>92</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>352</v>
+        <v>93</v>
       </c>
       <c r="H443" s="1" t="s">
-        <v>353</v>
+        <v>94</v>
       </c>
       <c r="I443" s="1" t="s">
-        <v>353</v>
+        <v>95</v>
       </c>
       <c r="J443" s="2" t="s">
         <v>25</v>
@@ -32677,10 +32656,10 @@
         <v>27</v>
       </c>
       <c r="N443" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O443" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="P443" s="2" t="s">
         <v>28</v>
@@ -32692,7 +32671,7 @@
         <v>28</v>
       </c>
       <c r="S443" s="2" t="s">
-        <v>28</v>
+        <v>711</v>
       </c>
       <c r="T443" s="2" t="s">
         <v>28</v>
@@ -32715,22 +32694,22 @@
         <v>22</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>690</v>
       </c>
       <c r="F444" s="2" t="s">
-        <v>92</v>
+        <v>378</v>
       </c>
       <c r="G444" s="1" t="s">
-        <v>93</v>
+        <v>427</v>
       </c>
       <c r="H444" s="1" t="s">
-        <v>94</v>
+        <v>428</v>
       </c>
       <c r="I444" s="1" t="s">
-        <v>95</v>
+        <v>429</v>
       </c>
       <c r="J444" s="2" t="s">
         <v>25</v>
@@ -32745,10 +32724,10 @@
         <v>27</v>
       </c>
       <c r="N444" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="O444" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="P444" s="2" t="s">
         <v>28</v>
@@ -32760,7 +32739,7 @@
         <v>28</v>
       </c>
       <c r="S444" s="2" t="s">
-        <v>714</v>
+        <v>28</v>
       </c>
       <c r="T444" s="2" t="s">
         <v>28</v>
@@ -32789,16 +32768,16 @@
         <v>690</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>378</v>
+        <v>264</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>427</v>
+        <v>265</v>
       </c>
       <c r="H445" s="1" t="s">
-        <v>428</v>
+        <v>266</v>
       </c>
       <c r="I445" s="1" t="s">
-        <v>429</v>
+        <v>266</v>
       </c>
       <c r="J445" s="2" t="s">
         <v>25</v>
@@ -32813,10 +32792,10 @@
         <v>27</v>
       </c>
       <c r="N445" s="2" t="s">
-        <v>45</v>
+        <v>707</v>
       </c>
       <c r="O445" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="P445" s="2" t="s">
         <v>28</v>
@@ -32857,16 +32836,16 @@
         <v>690</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>264</v>
+        <v>157</v>
       </c>
       <c r="G446" s="1" t="s">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="H446" s="1" t="s">
-        <v>266</v>
+        <v>159</v>
       </c>
       <c r="I446" s="1" t="s">
-        <v>266</v>
+        <v>159</v>
       </c>
       <c r="J446" s="2" t="s">
         <v>25</v>
@@ -32881,10 +32860,10 @@
         <v>27</v>
       </c>
       <c r="N446" s="2" t="s">
-        <v>707</v>
+        <v>43</v>
       </c>
       <c r="O446" s="2" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="P446" s="2" t="s">
         <v>28</v>
@@ -32925,16 +32904,16 @@
         <v>690</v>
       </c>
       <c r="F447" s="2" t="s">
-        <v>157</v>
+        <v>396</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>158</v>
+        <v>514</v>
       </c>
       <c r="H447" s="1" t="s">
-        <v>159</v>
+        <v>515</v>
       </c>
       <c r="I447" s="1" t="s">
-        <v>159</v>
+        <v>515</v>
       </c>
       <c r="J447" s="2" t="s">
         <v>25</v>
@@ -32949,10 +32928,10 @@
         <v>27</v>
       </c>
       <c r="N447" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="O447" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P447" s="2" t="s">
         <v>28</v>
@@ -32987,22 +32966,22 @@
         <v>22</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>690</v>
       </c>
       <c r="F448" s="2" t="s">
-        <v>396</v>
+        <v>183</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>514</v>
+        <v>184</v>
       </c>
       <c r="H448" s="1" t="s">
-        <v>515</v>
+        <v>185</v>
       </c>
       <c r="I448" s="1" t="s">
-        <v>515</v>
+        <v>185</v>
       </c>
       <c r="J448" s="2" t="s">
         <v>25</v>
@@ -33017,10 +32996,10 @@
         <v>27</v>
       </c>
       <c r="N448" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="O448" s="2" t="s">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="P448" s="2" t="s">
         <v>28</v>
@@ -33061,16 +33040,16 @@
         <v>690</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="G449" s="1" t="s">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="H449" s="1" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="I449" s="1" t="s">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="J449" s="2" t="s">
         <v>25</v>
@@ -33085,10 +33064,10 @@
         <v>27</v>
       </c>
       <c r="N449" s="2" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="O449" s="2" t="s">
-        <v>403</v>
+        <v>85</v>
       </c>
       <c r="P449" s="2" t="s">
         <v>28</v>
@@ -33123,22 +33102,22 @@
         <v>22</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>690</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>406</v>
+        <v>69</v>
       </c>
       <c r="G450" s="1" t="s">
-        <v>717</v>
+        <v>70</v>
       </c>
       <c r="H450" s="1" t="s">
-        <v>718</v>
+        <v>71</v>
       </c>
       <c r="I450" s="1" t="s">
-        <v>718</v>
+        <v>71</v>
       </c>
       <c r="J450" s="2" t="s">
         <v>25</v>
@@ -33153,13 +33132,13 @@
         <v>27</v>
       </c>
       <c r="N450" s="2" t="s">
-        <v>28</v>
+        <v>715</v>
       </c>
       <c r="O450" s="2" t="s">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="P450" s="2" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="Q450" s="2" t="s">
         <v>28</v>
@@ -33191,22 +33170,22 @@
         <v>22</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>690</v>
       </c>
       <c r="F451" s="2" t="s">
-        <v>35</v>
+        <v>364</v>
       </c>
       <c r="G451" s="1" t="s">
-        <v>36</v>
+        <v>365</v>
       </c>
       <c r="H451" s="1" t="s">
-        <v>37</v>
+        <v>366</v>
       </c>
       <c r="I451" s="1" t="s">
-        <v>38</v>
+        <v>366</v>
       </c>
       <c r="J451" s="2" t="s">
         <v>25</v>
@@ -33221,10 +33200,10 @@
         <v>27</v>
       </c>
       <c r="N451" s="2" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="O451" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="P451" s="2" t="s">
         <v>28</v>
@@ -33245,210 +33224,6 @@
         <v>30</v>
       </c>
       <c r="V451" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B452" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C452" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D452" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="E452" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="F452" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G452" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H452" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I452" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J452" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K452" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L452" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M452" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N452" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="O452" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P452" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="Q452" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R452" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S452" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T452" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U452" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V452" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C453" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D453" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="E453" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="F453" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G453" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H453" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I453" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J453" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K453" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L453" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M453" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N453" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O453" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P453" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q453" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R453" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S453" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T453" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U453" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V453" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C454" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D454" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="E454" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="F454" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G454" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="H454" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="I454" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="J454" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K454" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L454" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M454" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N454" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O454" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P454" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q454" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R454" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S454" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T454" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U454" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V454" s="2" t="s">
         <v>28</v>
       </c>
     </row>
